--- a/ig/ch-vacd/ValueSet-ch-vacd-basic-immunization-vs.xlsx
+++ b/ig/ch-vacd/ValueSet-ch-vacd-basic-immunization-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0</t>
+    <t>4.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-21T13:48:44+01:00</t>
+    <t>2023-06-29T17:22:50+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -93,7 +93,7 @@
     <t>Copyright</t>
   </si>
   <si>
-    <t>CC-BY-SA-4.0</t>
+    <t>CC0-1.0</t>
   </si>
   <si>
     <t>Immutable</t>
@@ -245,10 +245,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/ig/ch-vacd/ValueSet-ch-vacd-basic-immunization-vs.xlsx
+++ b/ig/ch-vacd/ValueSet-ch-vacd-basic-immunization-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.0</t>
+    <t>4.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-20T09:30:51+01:00</t>
+    <t>2023-12-28T11:15:40+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-vacd/ValueSet-ch-vacd-basic-immunization-vs.xlsx
+++ b/ig/ch-vacd/ValueSet-ch-vacd-basic-immunization-vs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.1</t>
+    <t>5.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-28T11:15:40+01:00</t>
+    <t>2024-05-17T07:15:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>The codes for declaring basic immunization</t>
+    <t>The codes for declaring basic immunization.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -99,7 +99,7 @@
     <t>Immutable</t>
   </si>
   <si>
-    <t>BooleanType[true]</t>
+    <t>BooleanType[null]</t>
   </si>
   <si>
     <t>Concept</t>
@@ -108,13 +108,79 @@
     <t>bi-dtpa</t>
   </si>
   <si>
-    <t>Received all vaccinations against DTPa in childhood.</t>
+    <t>Received basic immunization against DTPa in childhood.</t>
   </si>
   <si>
     <t>bi-polio</t>
   </si>
   <si>
-    <t>Received all vaccinations against poliomyelitis in childhood.</t>
+    <t>Received basic immunization against poliomyelitis in childhood.</t>
+  </si>
+  <si>
+    <t>bi-fsme</t>
+  </si>
+  <si>
+    <t>Received basic immunization against tick-borne encephalitis.</t>
+  </si>
+  <si>
+    <t>bi-hib</t>
+  </si>
+  <si>
+    <t>Received basic immunization against Haemophilus influenzae type b.</t>
+  </si>
+  <si>
+    <t>bi-hpv</t>
+  </si>
+  <si>
+    <t>Received basic immunization against Human papillomavirus.</t>
+  </si>
+  <si>
+    <t>bi-variz</t>
+  </si>
+  <si>
+    <t>Received basic immunization against varicella.</t>
+  </si>
+  <si>
+    <t>bi-mmr</t>
+  </si>
+  <si>
+    <t>Received basic immunization against Measles, Mumps, Rubella.</t>
+  </si>
+  <si>
+    <t>bi-pneumo</t>
+  </si>
+  <si>
+    <t>Received basic immunization against Pneumococcal infectious disease.</t>
+  </si>
+  <si>
+    <t>bi-hepb</t>
+  </si>
+  <si>
+    <t>Received basic immunization against viral hepatitis type B</t>
+  </si>
+  <si>
+    <t>bi-hepa</t>
+  </si>
+  <si>
+    <t>Received basic immunization against viral hepatitis type A</t>
+  </si>
+  <si>
+    <t>bi-herpzos</t>
+  </si>
+  <si>
+    <t>Received basic immunization against herpes zoster</t>
+  </si>
+  <si>
+    <t>bi-mening</t>
+  </si>
+  <si>
+    <t>Received basic immunization against meningococcal infectious disease.</t>
+  </si>
+  <si>
+    <t>bi-rabi</t>
+  </si>
+  <si>
+    <t>Received basic immunization against rabies</t>
   </si>
   <si>
     <t/>
@@ -392,7 +458,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -431,15 +497,103 @@
         <v>34</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-vacd/ValueSet-ch-vacd-basic-immunization-vs.xlsx
+++ b/ig/ch-vacd/ValueSet-ch-vacd-basic-immunization-vs.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from Basic Immunizati" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T07:15:18+00:00</t>
+    <t>2024-12-18T07:33:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-vacd/ValueSet-ch-vacd-basic-immunization-vs.xlsx
+++ b/ig/ch-vacd/ValueSet-ch-vacd-basic-immunization-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>6.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T07:33:04+00:00</t>
+    <t>2025-05-22T09:46:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-vacd/ValueSet-ch-vacd-basic-immunization-vs.xlsx
+++ b/ig/ch-vacd/ValueSet-ch-vacd-basic-immunization-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.0.0-ballot</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T09:46:13+00:00</t>
+    <t>2025-12-16T10:03:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
